--- a/03_Lists/Lecture/WS_List_Functions/WS_ListFunctions.xlsx
+++ b/03_Lists/Lecture/WS_List_Functions/WS_ListFunctions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dk/Dropbox/fhnw/fprog/course/03_Lists/Lecture/WS_ListFunctions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gideon/VSCodeProjects/fprog/03_Lists/Lecture/WS_List_Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470BCBEC-9558-5149-9894-DDD33359BE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF5ADA-B3C9-444C-963B-982DCDCC5B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="900" windowWidth="26100" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>(++) :: [a] -&gt; [a] -&gt; [a]</t>
   </si>
@@ -102,13 +102,28 @@
   </si>
   <si>
     <t>Verwenden Sie ghci und http://www.haskell.org/hoogle um diese Liste zu vervollständigen.</t>
+  </si>
+  <si>
+    <t>take :: Int -&gt; [a] -&gt; [a]</t>
+  </si>
+  <si>
+    <t>gibt die ersten n Elemente von der folgenden Liste zurück.</t>
+  </si>
+  <si>
+    <t>drop :: Int -&gt; [a] -&gt; [a]</t>
+  </si>
+  <si>
+    <t>drop 3 ['a','b','c','d','e'] ~&gt; ['d','e']</t>
+  </si>
+  <si>
+    <t>['a','b','c','d','e'] !! 2 ~&gt; 'c'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,9 +309,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -311,10 +326,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="64.1640625" customWidth="1"/>
@@ -736,20 +748,20 @@
     <col min="4" max="4" width="164.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -763,7 +775,7 @@
 Wird entsprechend verwendet um Strings zu konkatenieren.")</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38">
+    <row r="6" spans="1:3" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -771,7 +783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55" customHeight="1">
+    <row r="7" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -779,21 +791,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="19">
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B9,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B10,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B11,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","take 3 ['a','b','c','d','e'] ~&gt; ['a','b','c']","")</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19">
+        <v>("take :: Int -&gt; [a] -&gt; [a]","take 3 ['a','b','c','d','e'] ~&gt; ['a','b','c']","gibt die ersten n Elemente von der folgenden Liste zurück.")</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -801,33 +815,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="55" customHeight="1">
+    <row r="11" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="19">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B13,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B14,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B15,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("","","Wirft die ersten n Elemente weg.")</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19">
+        <v>("drop :: Int -&gt; [a] -&gt; [a]","drop 3 ['a','b','c','d','e'] ~&gt; ['d','e']","Wirft die ersten n Elemente weg.")</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="55" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -835,11 +855,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="19">
+    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -848,26 +868,28 @@
       </c>
       <c r="C17" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B17,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B18,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B19,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
-        <v>("(!!) :: [a] -&gt; Int -&gt; a","","")</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19">
+        <v>("(!!) :: [a] -&gt; Int -&gt; a","['a','b','c','d','e'] !! 2 ~&gt; 'c'","")</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="55" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" ht="19">
+    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -877,13 +899,13 @@
         <v>("","","Gibt das letzte Element zurück. ")</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19">
+    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="55" customHeight="1">
+    <row r="23" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -891,11 +913,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="39" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" ht="19">
+    <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -905,7 +927,7 @@
         <v>("","init ['a','b','c','d'] ~&gt; ['a','b','c']","")</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20">
+    <row r="26" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -913,17 +935,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="55" customHeight="1">
+    <row r="27" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="1:3" ht="19">
+    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -933,13 +955,13 @@
         <v>("","","Dreht eine Liste um.")</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19">
+    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="55" customHeight="1">
+    <row r="31" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -947,11 +969,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:3" ht="19">
+    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
@@ -963,23 +985,23 @@
         <v>("elem :: Eq a =&gt; a -&gt; [a] -&gt; Bool","","")</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19">
+    <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="55" customHeight="1">
+    <row r="35" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" ht="19">
+    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
@@ -990,7 +1012,7 @@
 minimum [1,4,3] ~&gt; 1","")</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40">
+    <row r="38" spans="1:3" ht="40" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -998,17 +1020,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="55" customHeight="1">
+    <row r="39" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="1:3" ht="19">
+    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
@@ -1019,13 +1041,13 @@
 Die Listenelemente müssen von einem Zahlen Typen sein (Num).")</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19">
+    <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="55" customHeight="1">
+    <row r="43" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
@@ -1033,15 +1055,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" ht="19">
-      <c r="A45" s="11" t="s">
+    <row r="44" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="str">
@@ -1049,23 +1071,23 @@
         <v>("zip :: [a] -&gt; [b] -&gt; [(a,b)]","","")</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19">
+    <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="55" customHeight="1">
+    <row r="47" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:3" ht="19">
+    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1098,7 @@
 concat [\"abc\",\"def\"] ~&gt; \"abcdef\"","")</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40">
+    <row r="50" spans="1:3" ht="40" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>11</v>
       </c>
@@ -1084,28 +1106,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="55" customHeight="1">
+    <row r="51" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="1:3" ht="19">
-      <c r="A53" s="11" t="s">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="11"/>
       <c r="C53" t="str">
         <f>"(""" &amp;   SUBSTITUTE(SUBSTITUTE(B53,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp;  SUBSTITUTE(SUBSTITUTE(B54,CHAR(13),"\n"),"""","\""") &amp; """,""" &amp; SUBSTITUTE(SUBSTITUTE(B55,CHAR(13),"\n"),"""","\""") &amp; """)"</f>
         <v>("","zipWith (+) [1,2,3] [10,11,12] ~&gt; [11,13,15]
 zipWith (++) [\"Ha\",\"Ec\"] [\"llo\",\"ho\"] ~&gt; [\"Hallo\",\"Echo\"]","")</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40">
+    <row r="54" spans="1:3" ht="40" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>11</v>
       </c>
@@ -1113,25 +1135,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="55" customHeight="1">
+    <row r="55" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="19">
-      <c r="A56" s="8"/>
+    <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="19">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:3" ht="19">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:3" ht="19">
+    <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="1"/>
     </row>
@@ -1143,6 +1165,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004323339D143BFE4C81EB9B2084F04DEB" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7df28e359889e9f53acf3d4c6388a699">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca4250ca-406f-44a8-983d-52a3785f18f1" xmlns:ns3="4af62674-c770-4a4a-9941-c86b92b7b6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="515766bda3de29ba88bfda06f524f200" ns2:_="" ns3:_="">
     <xsd:import namespace="ca4250ca-406f-44a8-983d-52a3785f18f1"/>
@@ -1337,15 +1368,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1353,13 +1375,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E2B639-113A-470D-BEA4-6BA322EB786A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{461BA517-8C16-4A1A-893E-E61E97962739}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{461BA517-8C16-4A1A-893E-E61E97962739}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E2B639-113A-470D-BEA4-6BA322EB786A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca4250ca-406f-44a8-983d-52a3785f18f1"/>
+    <ds:schemaRef ds:uri="4af62674-c770-4a4a-9941-c86b92b7b6f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B70D5B8-EAD3-43D2-9BB9-873CA95CE180}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B70D5B8-EAD3-43D2-9BB9-873CA95CE180}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>